--- a/input_example.xlsx
+++ b/input_example.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
+    <sheet name="description" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="22">
   <si>
     <t>exposure</t>
   </si>
@@ -59,6 +60,33 @@
   <si>
     <t>slow_drug</t>
   </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>the time (in hours) the parasite culture was exposed to a given compound, e.g. 0, 24, 48, 72, 96, 120</t>
+  </si>
+  <si>
+    <t>the name of the compound of interest; must be unique</t>
+  </si>
+  <si>
+    <t>the half-maximum inhibitory concentration (IC50) pre-determined in a conventional growth inhibition assay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the hill slope of the dose-response curve from which the IC50 values was deduced </t>
+  </si>
+  <si>
+    <t>the factor by which the IC50 value was multiplied in order to calculate the compound concentration used in the PRR assay, e.g. factor = 10 if the IC50 was 5 nM and the PRR assay concentration was 50 nM</t>
+  </si>
+  <si>
+    <t>the campaign name; must be unique</t>
+  </si>
+  <si>
+    <t>the normalized log(viable parasite number +1) for the various technical replicates and exposure times</t>
+  </si>
 </sst>
 </file>
 
@@ -97,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -114,6 +142,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,4 +2607,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="183.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
 </file>